--- a/data/trans_camb/P24_6_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_6_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,26</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
+          <t>22,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>21,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>10,95</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,08</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21,52</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10,3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12,73</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 6,55</t>
+          <t>-18,87; 19,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 25,83</t>
+          <t>-5,36; 44,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 12,99</t>
+          <t>-13,49; 32,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 18,57</t>
+          <t>-14,98; 34,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 25,03</t>
+          <t>-16,31; 22,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 20,93</t>
+          <t>1,61; 40,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 11,01</t>
+          <t>-10,89; 29,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 22,58</t>
+          <t>-7,85; 32,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 14,96</t>
+          <t>-15,25; 16,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 37,62</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,2; 26,33</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 29,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-25,54%</t>
+          <t>-2,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>123,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>66,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>67,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>39,68%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,19; 33,4</t>
+          <t>-64,87; 194,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 138,02</t>
+          <t>-11,98; 430,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,17; 66,02</t>
+          <t>-45,63; 319,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 52,94</t>
+          <t>-45,75; 321,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 71,61</t>
+          <t>-27,81; 67,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 55,66</t>
+          <t>2,93; 125,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 36,55</t>
+          <t>-19,74; 84,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 76,49</t>
+          <t>-15,41; 98,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 52,96</t>
+          <t>-37,41; 67,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,37; 152,59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-21,3; 105,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,7; 122,66</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>15,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>18,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,13</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 7,67</t>
+          <t>-4,49; 11,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 8,25</t>
+          <t>-3,87; 12,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 13,12</t>
+          <t>5,83; 28,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 6,91</t>
+          <t>7,91; 30,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 8,12</t>
+          <t>-10,64; 8,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 11,67</t>
+          <t>-15,0; 5,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 5,93</t>
+          <t>-7,88; 11,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 5,29</t>
+          <t>-4,18; 16,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 9,88</t>
+          <t>-5,42; 7,76</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 6,37</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 15,5</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 19,5</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>111,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>134,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>-2,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>-11,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,83%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47,21%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 66,94</t>
+          <t>-27,53; 111,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 69,7</t>
+          <t>-24,45; 133,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 112,95</t>
+          <t>30,02; 271,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 23,21</t>
+          <t>33,3; 289,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 28,04</t>
+          <t>-26,1; 27,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 40,24</t>
+          <t>-36,36; 18,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 27,3</t>
+          <t>-18,9; 36,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 24,26</t>
+          <t>-10,48; 51,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 43,74</t>
+          <t>-18,88; 33,66</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-23,61; 28,35</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 68,38</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14,37; 86,81</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-2,99</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 7,34</t>
+          <t>-15,29; 5,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 7,63</t>
+          <t>-10,59; 11,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 13,09</t>
+          <t>-11,8; 7,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 6,93</t>
+          <t>-9,5; 12,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 4,08</t>
+          <t>-10,95; 9,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 7,17</t>
+          <t>-11,89; 5,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 4,62</t>
+          <t>-8,04; 10,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 4,04</t>
+          <t>-4,72; 15,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 7,66</t>
+          <t>-9,99; 4,35</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 5,72</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 6,27</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 10,19</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>-23,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>-10,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,76%</t>
+          <t>-3,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,19%</t>
+          <t>-12,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>-11,32%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-5,01%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-1,47%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 58,69</t>
+          <t>-55,59; 34,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 61,11</t>
+          <t>-39,19; 70,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 101,81</t>
+          <t>-48,66; 50,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 28,3</t>
+          <t>-35,48; 76,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 17,36</t>
+          <t>-36,29; 45,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 30,25</t>
+          <t>-39,81; 28,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 22,93</t>
+          <t>-26,61; 51,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 19,9</t>
+          <t>-16,23; 75,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 39,14</t>
+          <t>-36,91; 22,62</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-31,22; 29,59</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-27,2; 32,01</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-16,98; 50,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 7,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 9,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 5,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 6,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 8,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 7,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 28,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 49,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 66,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 18,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 21,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 27,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 16,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 23,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 32,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5,56</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8,18</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11,2</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 6,09</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 12,47</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 16,61</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 20,72</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 6,39</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 6,72</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 10,3</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 16,74</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 4,21</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 7,15</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 10,24</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 15,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>32,58%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>47,92%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>65,68%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>25,58%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>37,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-30,16; 43,32</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 90,09</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 111,89</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>17,12; 135,76</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-18,31; 21,85</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-17,94; 23,02</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; 35,02</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 55,85</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-17,71; 18,26</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-10,03; 30,36</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 43,26</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 64,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
